--- a/biology/Botanique/Nicholas_Polunin/Nicholas_Polunin.xlsx
+++ b/biology/Botanique/Nicholas_Polunin/Nicholas_Polunin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nicholas Polunin (26 juin 1909-8 décembre 1997) est un botaniste, bryologiste et écologiste anglais[1]. Il est le frère aîné d'Oleg Polunin (1914-1985), botaniste aussi, et d'Ivan Polunin (1920-2010), photographe et ethnologue.
-Il est le fils du peintre et designer Vladimir Polunin[2] et du sculpteur Elizabeth Violet Hart, immortalisée par Pierre Roché dans son roman Les Deux Anglaises et le continent.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nicholas Polunin (26 juin 1909-8 décembre 1997) est un botaniste, bryologiste et écologiste anglais. Il est le frère aîné d'Oleg Polunin (1914-1985), botaniste aussi, et d'Ivan Polunin (1920-2010), photographe et ethnologue.
+Il est le fils du peintre et designer Vladimir Polunin et du sculpteur Elizabeth Violet Hart, immortalisée par Pierre Roché dans son roman Les Deux Anglaises et le continent.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Circumpolar Arctic flora, Oxford, Clarendon, 1959
 Introduction to Plant Geography and some related sciences, London, Longmans, 1960 (traduction en français : Eléments de Géographie Botanique, Paris, Gauthier-Villars, 1967)
@@ -545,7 +559,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Missouri Bryological list. Taxon, 48(4): 787 (1999).</t>
         </is>
